--- a/sheets/f-score_sheets.xlsx
+++ b/sheets/f-score_sheets.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="18">
   <si>
-    <t>SCENARIO</t>
+    <t>EXPANSION TECHNIQUE</t>
   </si>
   <si>
     <t>NUMBER OF ADDED SYNSETS</t>
@@ -33,10 +33,10 @@
     <t>RECALL</t>
   </si>
   <si>
-    <t>F-SCORE</t>
+    <t>F-CFEORE</t>
   </si>
   <si>
-    <t>SB</t>
+    <t>BASE</t>
   </si>
   <si>
     <t>BM25</t>
@@ -48,28 +48,28 @@
     <t>LDA</t>
   </si>
   <si>
-    <t>SW</t>
+    <t>WFE</t>
   </si>
   <si>
-    <t>SC</t>
+    <t>CFE</t>
   </si>
   <si>
-    <t>SW-n</t>
+    <t>WNE</t>
   </si>
   <si>
-    <t>SC-n</t>
+    <t>CNE</t>
   </si>
   <si>
-    <t>SW-s</t>
+    <t>WSE</t>
   </si>
   <si>
-    <t>SC-s</t>
+    <t>CSE</t>
   </si>
   <si>
-    <t>SW-ns</t>
+    <t>WNSE</t>
   </si>
   <si>
-    <t>SC-ns</t>
+    <t>CNSE</t>
   </si>
 </sst>
 </file>
@@ -106,13 +106,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -144,17 +144,17 @@
     <worksheetSource ref="A1:F124" sheet="Página1"/>
   </cacheSource>
   <cacheFields>
-    <cacheField name="SCENARIO" numFmtId="0">
+    <cacheField name="EXPANSION TECHNIQUE" numFmtId="0">
       <sharedItems>
-        <s v="SB"/>
-        <s v="SW"/>
-        <s v="SC"/>
-        <s v="SW-n"/>
-        <s v="SC-n"/>
-        <s v="SW-s"/>
-        <s v="SC-s"/>
-        <s v="SW-ns"/>
-        <s v="SC-ns"/>
+        <s v="BASE"/>
+        <s v="WFE"/>
+        <s v="CFE"/>
+        <s v="WNE"/>
+        <s v="CNE"/>
+        <s v="WSE"/>
+        <s v="CSE"/>
+        <s v="WNSE"/>
+        <s v="CNSE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NUMBER OF ADDED SYNSETS" numFmtId="0">
@@ -362,7 +362,7 @@
         <n v="37.25"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="F-SCORE" numFmtId="0">
+    <cacheField name="F-CFEORE" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="19.64"/>
         <n v="32.91"/>
@@ -467,7 +467,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica 3" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:G44" firstHeaderRow="0" firstDataRow="6" firstDataCol="0"/>
   <pivotFields>
-    <pivotField name="SCENARIO" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField name="EXPANSION TECHNIQUE" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="0"/>
         <item x="2"/>
@@ -799,7 +799,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica 2" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:G124" firstHeaderRow="0" firstDataRow="6" firstDataCol="0"/>
   <pivotFields>
-    <pivotField name="SCENARIO" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField name="EXPANSION TECHNIQUE" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="0"/>
         <item x="2"/>
@@ -1331,7 +1331,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
+    <col customWidth="1" min="1" max="1" width="25.29"/>
     <col customWidth="1" min="2" max="2" width="31.29"/>
     <col customWidth="1" min="3" max="3" width="9.14"/>
     <col customWidth="1" min="4" max="4" width="12.86"/>
@@ -1343,2479 +1343,2479 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>13.06</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>32.16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>19.64</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>27.4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>49.4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>32.91</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>9.62</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>36.95</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>19.34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1.0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>12.47</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>32.02</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>19.46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1.0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>27.15</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>48.32</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>31.75</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1.0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>8.06</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>30.93</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>15.77</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2.0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>10.11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>28.81</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>16.7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2.0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>23.58</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>41.93</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>26.35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>2.0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>7.66</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>30.51</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>15.46</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>3.0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>9.79</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>28.62</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>16.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>3.0</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>23.22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>41.22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>25.73</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>3.0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>7.23</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>29.86</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>14.8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>4.0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>9.88</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>27.95</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>16.05</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>4.0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>23.02</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>40.62</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>25.28</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>4.0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>7.94</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>30.82</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>15.57</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>5.0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>9.83</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>27.97</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>16.05</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>5.0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>23.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>40.7</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>25.32</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>5.0</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>7.99</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>30.78</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>15.6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1.0</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>11.25</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>29.66</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>17.54</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1.0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>27.09</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>48.62</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>32.12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1.0</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>7.55</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>31.86</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>15.82</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2.0</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>10.61</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>28.77</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>16.81</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>2.0</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>27.52</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>47.96</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>31.52</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>2.0</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>8.04</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>33.24</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>16.77</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>3.0</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>10.48</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>28.72</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>16.72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>3.0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>27.67</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>47.85</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>31.42</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>3.0</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>7.94</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>32.62</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>16.52</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>4.0</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>10.42</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>28.54</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>16.57</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>4.0</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>27.62</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>47.72</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>31.35</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>4.0</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>7.76</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>32.24</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>16.21</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>5.0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>10.6</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>28.64</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>16.68</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>5.0</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>27.62</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>47.61</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>31.32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>5.0</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>7.77</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>32.17</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>16.18</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>1.0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>12.19</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>31.16</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>18.78</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>1.0</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>26.43</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>46.56</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>30.44</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>1.0</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>8.71</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>33.62</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>17.32</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>2.0</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>10.8</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>29.55</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>17.32</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>2.0</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>22.89</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>40.88</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>25.65</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>2.0</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>7.67</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>29.86</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>15.14</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>3.0</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>9.54</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>28.4</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>16.23</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>3.0</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>23.13</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>40.49</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>25.31</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>3.0</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>8.65</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>32.73</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>16.99</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>4.0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>9.84</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>28.02</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>16.09</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>4.0</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>23.03</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>39.69</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>24.8</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>4.0</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>8.94</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>32.94</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>17.11</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>5.0</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>9.91</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>28.04</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>16.1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>5.0</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>23.19</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>39.95</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>24.99</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>5.0</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>8.9</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>32.73</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>16.97</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>1.0</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>12.06</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>30.78</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>18.4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1.0</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>27.37</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>48.94</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>32.43</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>1.0</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>7.97</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>32.95</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>16.63</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>2.0</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>11.47</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>29.89</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>17.74</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>2.0</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>27.48</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>48.17</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>31.74</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>2.0</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>8.71</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>35.15</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>18.03</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>3.0</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>11.49</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>30.11</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>17.85</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>3.0</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>27.55</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>48.18</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>31.73</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>3.0</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>8.46</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>34.12</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>17.49</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>4.0</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>11.31</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>29.78</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>17.6</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>4.0</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>27.29</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>48.07</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>31.66</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>4.0</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>8.21</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>33.58</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>17.05</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>5.0</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>11.39</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>29.71</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>17.56</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>5.0</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>27.29</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>47.96</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>31.62</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>5.0</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>8.27</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>33.63</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>17.11</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>1.0</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>13.39</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>32.75</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>20.25</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>1.0</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>28.89</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>51.08</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>34.28</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>1.0</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>10.11</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>37.2</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>19.76</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>2.0</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>13.49</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>32.48</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>20.12</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>2.0</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>28.34</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>50.15</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>33.46</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>2.0</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>10.88</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>38.77</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>21.2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>3.0</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>13.45</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>32.69</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>20.19</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>3.0</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>28.22</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>49.99</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>33.32</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>3.0</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>10.6</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>38.61</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>20.92</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>4.0</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>13.33</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>32.61</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>20.11</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>4.0</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>28.22</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>49.99</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>33.32</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>4.0</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>10.6</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>38.61</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>20.91</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>5.0</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>13.28</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>32.55</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>20.05</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>5.0</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>28.24</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>50.04</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>33.36</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>5.0</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>10.6</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>38.61</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>20.91</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>1.0</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>13.12</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>32.1</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>19.76</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>1.0</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>28.59</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>50.28</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>33.74</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>1.0</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>10.16</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>37.74</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>20.27</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>2.0</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>13.11</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>32.21</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>19.83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>2.0</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>28.15</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>46.69</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>2.0</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>9.76</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>36.98</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>19.66</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>3.0</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>13.16</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>32.38</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>19.89</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>3.0</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>28.15</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>46.69</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>3.0</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>9.77</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>36.91</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>19.64</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>4.0</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>13.16</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>32.28</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>19.89</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>4.0</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>28.15</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>46.69</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>4.0</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>9.77</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>36.91</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>19.64</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>5.0</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>13.16</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>32.28</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>19.89</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>5.0</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>28.15</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>46.69</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>5.0</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>9.77</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>36.91</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="3">
         <v>19.64</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>1.0</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>13.33</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>32.79</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="3">
         <v>20.23</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>1.0</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>28.89</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>51.09</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>34.3</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>1.0</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>10.11</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>37.2</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>19.76</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>2.0</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>13.34</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>32.57</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>20.09</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>2.0</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>28.35</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="3">
         <v>50.19</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="3">
         <v>33.5</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>2.0</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>10.88</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>38.77</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="3">
         <v>21.1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>3.0</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>13.34</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="3">
         <v>32.73</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="3">
         <v>20.15</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>3.0</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>28.23</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="3">
         <v>50.02</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="3">
         <v>33.35</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>3.0</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>10.6</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="3">
         <v>38.61</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="3">
         <v>20.92</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>4.0</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>13.27</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="3">
         <v>32.64</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="3">
         <v>20.07</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>4.0</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>28.23</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="3">
         <v>50.02</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="3">
         <v>33.35</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>4.0</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>10.6</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="3">
         <v>38.61</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="3">
         <v>20.91</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>5.0</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>13.22</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="3">
         <v>32.58</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="3">
         <v>20.01</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>5.0</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>28.25</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="3">
         <v>50.07</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="3">
         <v>33.39</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>5.0</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>10.6</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>38.61</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="3">
         <v>20.91</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>1.0</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>13.1</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>32.23</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="3">
         <v>19.8</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>1.0</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>28.59</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="3">
         <v>50.28</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="3">
         <v>33.74</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>1.0</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>10.16</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>37.74</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="3">
         <v>20.27</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>2.0</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>13.08</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="3">
         <v>32.28</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="3">
         <v>19.84</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>2.0</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>28.15</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="3">
         <v>49.69</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>2.0</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>9.89</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="3">
         <v>37.32</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="3">
         <v>19.91</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>3.0</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>13.13</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="3">
         <v>32.35</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="3">
         <v>19.9</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>3.0</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>28.15</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="3">
         <v>49.69</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>3.0</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>9.89</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="3">
         <v>37.25</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="3">
         <v>19.89</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>4.0</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="3">
         <v>13.13</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>32.35</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="3">
         <v>19.9</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>4.0</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>28.15</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="3">
         <v>49.69</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>4.0</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="3">
         <v>9.89</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="3">
         <v>37.25</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="3">
         <v>19.89</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>5.0</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>13.13</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="3">
         <v>32.35</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="3">
         <v>19.9</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>5.0</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>28.15</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="3">
         <v>49.69</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="3">
         <v>33.18</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>5.0</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>9.89</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="3">
         <v>37.25</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="3">
         <v>19.89</v>
       </c>
     </row>
@@ -3834,7 +3834,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="24.86"/>
     <col customWidth="1" min="3" max="3" width="31.14"/>
+    <col customWidth="1" min="6" max="6" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -4535,6 +4537,10 @@
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.57"/>
+    <col customWidth="1" min="2" max="2" width="31.43"/>
+  </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
